--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF95FBEC-F07C-4CD6-98C6-E7949CD429AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D966CFF-B0A3-4D4F-9729-14DAE060097E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="255" windowWidth="27495" windowHeight="15150" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="338">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -875,9 +875,6 @@
 ※動的割り当ての場合、No72で設定されたサイズを上限として自動的に拡張されます。</t>
   </si>
   <si>
-    <t>Delete local profile when FSLogix Profile should apply</t>
-  </si>
-  <si>
     <t>FSLogixプロファイルシステムがユーザにFSLogixプロファイルが必要であると判断したが、ローカルプロファイルが存在する場合、ローカルプロファイルを削除し、ユーザはFSLogixプロファイルでログオンされます。この設定には注意してください。</t>
   </si>
   <si>
@@ -1528,6 +1525,91 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>ローカルプロファイルがある場合のFSLogix動作</t>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Delete local profile when FSLogix Profile should apply</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>構築中などでFSLogixを動作させずローカルプロファイルで動作させてからFSLogixに切り替えるとFrxTrayの状態が黄色信号でFSLogixプロファイルが生成されないことがある。
+FSLogixのオペレーションログに【Profile load: Status: 0  Reason: 3  Error: 0  Username: &lt;ユーザー名&gt;  SID: S-1-5-&lt;SID&gt;】と出ていてエラーがないのにFSLogixプロファイル切り替わらない場合は以下のいずれかを試すとよい。
+1. ローカルに残っているユーザープロファイルを削除
+2. 設定項目の【Delete local profile when FSLogix Profile should apply】をONにする
+これでオペレーションログに【Profile load: Status: 0  Reason: 0  Error: 0  Username: &lt;ユーザー名&gt;  SID: S-1-5-&lt;SID&gt;】に切り替わってFSLogixプロファイルが生成されるはず。</t>
+    <rPh sb="0" eb="2">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>キイロシンゴウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="276" eb="280">
+      <t>セッテイコウモク</t>
+    </rPh>
+    <rPh sb="441" eb="442">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="461" eb="463">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
@@ -2049,6 +2131,54 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2073,40 +2203,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,43 +2221,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2397,7 +2479,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
@@ -2406,34 +2488,34 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
       <c r="F5" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="73"/>
       <c r="F6" s="35" t="s">
         <v>5</v>
       </c>
@@ -2442,7 +2524,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="37"/>
       <c r="F7" s="35" t="s">
@@ -2465,10 +2547,10 @@
       <c r="B9" s="36"/>
       <c r="C9" s="52"/>
       <c r="D9" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>299</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2484,11 +2566,11 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
       <c r="F11" s="35" t="s">
         <v>13</v>
       </c>
@@ -2520,10 +2602,10 @@
       <c r="B14" s="39"/>
       <c r="C14" s="52"/>
       <c r="D14" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>299</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2586,7 +2668,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2596,15 +2678,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -2685,7 +2767,7 @@
         <v>113</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
@@ -2940,7 +3022,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>105</v>
@@ -3030,7 +3112,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="11">
         <v>21</v>
       </c>
@@ -10080,7 +10162,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10090,15 +10172,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -10130,7 +10212,7 @@
         <v>158</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>124</v>
@@ -10160,7 +10242,7 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -10177,7 +10259,7 @@
         <v>162</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17211,7 +17293,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17223,21 +17305,21 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="A2" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
-      <c r="B3" s="80"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="20"/>
       <c r="D3" s="7" t="s">
         <v>96</v>
@@ -17260,7 +17342,7 @@
     </row>
     <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
-      <c r="B4" s="72"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="23"/>
       <c r="D4" s="11">
         <v>1</v>
@@ -17281,7 +17363,7 @@
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="72"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="23"/>
       <c r="D5" s="11">
         <v>2</v>
@@ -17302,7 +17384,7 @@
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="23"/>
       <c r="D6" s="11">
         <v>3</v>
@@ -17320,12 +17402,12 @@
         <v>167</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="243.75" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
-      <c r="B7" s="72"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="23"/>
       <c r="D7" s="11">
         <v>4</v>
@@ -17346,7 +17428,7 @@
     </row>
     <row r="8" spans="1:9" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="72"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="23"/>
       <c r="D8" s="11">
         <v>5</v>
@@ -17364,12 +17446,12 @@
         <v>167</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
-      <c r="B9" s="72"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="23"/>
       <c r="D9" s="11">
         <v>6</v>
@@ -17390,7 +17472,7 @@
     </row>
     <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="72"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="23"/>
       <c r="D10" s="11">
         <v>7</v>
@@ -17411,7 +17493,7 @@
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="72"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="23"/>
       <c r="D11" s="11">
         <v>8</v>
@@ -17429,12 +17511,12 @@
         <v>113</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="23"/>
       <c r="D12" s="11">
         <v>9</v>
@@ -17455,7 +17537,7 @@
     </row>
     <row r="13" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
-      <c r="B13" s="72"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="23"/>
       <c r="D13" s="11">
         <v>10</v>
@@ -17478,7 +17560,7 @@
     </row>
     <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="72"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="23"/>
       <c r="D14" s="11">
         <v>11</v>
@@ -17499,7 +17581,7 @@
     </row>
     <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
-      <c r="B15" s="72"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="23"/>
       <c r="D15" s="11">
         <v>12</v>
@@ -17520,7 +17602,7 @@
     </row>
     <row r="16" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="72"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="23"/>
       <c r="D16" s="11">
         <v>13</v>
@@ -17538,12 +17620,12 @@
         <v>167</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
-      <c r="B17" s="72"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="23"/>
       <c r="D17" s="11">
         <v>14</v>
@@ -17564,7 +17646,7 @@
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="72"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="23"/>
       <c r="D18" s="11">
         <v>15</v>
@@ -17587,7 +17669,7 @@
     </row>
     <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
-      <c r="B19" s="72"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="23"/>
       <c r="D19" s="11">
         <v>16</v>
@@ -17608,7 +17690,7 @@
     </row>
     <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="72"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="23"/>
       <c r="D20" s="11">
         <v>17</v>
@@ -17629,7 +17711,7 @@
     </row>
     <row r="21" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
-      <c r="B21" s="72"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="23"/>
       <c r="D21" s="11">
         <v>18</v>
@@ -17647,12 +17729,12 @@
         <v>167</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="72"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="23"/>
       <c r="D22" s="11">
         <v>19</v>
@@ -17673,7 +17755,7 @@
     </row>
     <row r="23" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
-      <c r="B23" s="72"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="23"/>
       <c r="D23" s="11">
         <v>20</v>
@@ -17694,7 +17776,7 @@
     </row>
     <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="72"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="23"/>
       <c r="D24" s="11">
         <v>21</v>
@@ -17715,21 +17797,21 @@
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="82"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="7" t="s">
         <v>96</v>
       </c>
@@ -17752,7 +17834,7 @@
     <row r="27" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="83"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="11">
         <v>22</v>
       </c>
@@ -17773,7 +17855,7 @@
     <row r="28" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="83"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="11">
         <v>23</v>
       </c>
@@ -17794,7 +17876,7 @@
     <row r="29" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="83"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="11">
         <v>24</v>
       </c>
@@ -17815,7 +17897,7 @@
     <row r="30" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="83"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="11">
         <v>25</v>
       </c>
@@ -17836,7 +17918,7 @@
     <row r="31" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="83"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="11">
         <v>26</v>
       </c>
@@ -17857,7 +17939,7 @@
     <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="83"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="11">
         <v>27</v>
       </c>
@@ -17880,7 +17962,7 @@
     <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="83"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="11">
         <v>28</v>
       </c>
@@ -17901,7 +17983,7 @@
     <row r="34" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="83"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="11">
         <v>29</v>
       </c>
@@ -17924,7 +18006,7 @@
     <row r="35" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="83"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="11">
         <v>30</v>
       </c>
@@ -17945,7 +18027,7 @@
     <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="83"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="11">
         <v>31</v>
       </c>
@@ -17966,7 +18048,7 @@
     <row r="37" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="84"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="11">
         <v>32</v>
       </c>
@@ -17986,21 +18068,21 @@
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
     </row>
     <row r="39" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="25"/>
-      <c r="C39" s="82"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="7" t="s">
         <v>96</v>
       </c>
@@ -18023,7 +18105,7 @@
     <row r="40" spans="1:9" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="25"/>
-      <c r="C40" s="82"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="11">
         <v>33</v>
       </c>
@@ -18040,13 +18122,13 @@
         <v>214</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
       <c r="B41" s="25"/>
-      <c r="C41" s="82"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="11">
         <v>34</v>
       </c>
@@ -18067,64 +18149,64 @@
     <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="25"/>
-      <c r="C42" s="82"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="11">
         <v>35</v>
       </c>
-      <c r="E42" s="88" t="s">
-        <v>304</v>
+      <c r="E42" s="68" t="s">
+        <v>303</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="25"/>
-      <c r="C43" s="82"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="11">
         <v>36</v>
       </c>
-      <c r="E43" s="88" t="s">
-        <v>305</v>
+      <c r="E43" s="68" t="s">
+        <v>304</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="77"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="78"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="7" t="s">
         <v>96</v>
       </c>
@@ -18147,64 +18229,64 @@
     <row r="46" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="79"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="11">
         <v>37</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="79"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="11">
         <v>38</v>
       </c>
       <c r="E47" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>308</v>
-      </c>
       <c r="I47" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="73"/>
     </row>
     <row r="49" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="82"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="7" t="s">
         <v>96</v>
       </c>
@@ -18227,7 +18309,7 @@
     <row r="50" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="82"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="11">
         <v>39</v>
       </c>
@@ -18248,7 +18330,7 @@
     <row r="51" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="82"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="11">
         <v>40</v>
       </c>
@@ -18269,7 +18351,7 @@
     <row r="52" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="82"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="11">
         <v>41</v>
       </c>
@@ -18290,7 +18372,7 @@
     <row r="53" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="82"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="11">
         <v>42</v>
       </c>
@@ -18309,9 +18391,9 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="81"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="89"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="69"/>
       <c r="D54" s="11">
         <v>43</v>
       </c>
@@ -25347,7 +25429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J926"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25365,7 +25449,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25377,21 +25461,21 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="A2" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="72"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="23"/>
       <c r="D3" s="27" t="s">
         <v>96</v>
@@ -25414,7 +25498,7 @@
     </row>
     <row r="4" spans="1:10" ht="206.25" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
-      <c r="B4" s="72"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="23"/>
       <c r="D4" s="11">
         <v>1</v>
@@ -25437,7 +25521,7 @@
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="72"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="23"/>
       <c r="D5" s="11">
         <v>2</v>
@@ -25455,12 +25539,12 @@
         <v>105</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="23"/>
       <c r="D6" s="11">
         <v>3</v>
@@ -25481,7 +25565,7 @@
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
-      <c r="B7" s="72"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="23"/>
       <c r="D7" s="11">
         <v>4</v>
@@ -25503,7 +25587,7 @@
     </row>
     <row r="8" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="72"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="23"/>
       <c r="D8" s="11">
         <v>5</v>
@@ -25521,13 +25605,13 @@
         <v>105</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
-      <c r="B9" s="72"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="23"/>
       <c r="D9" s="11">
         <v>6</v>
@@ -25545,22 +25629,22 @@
         <v>105</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="72"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="23"/>
       <c r="D10" s="11">
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>104</v>
@@ -25574,7 +25658,7 @@
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="87"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="11">
         <v>8</v>
       </c>
@@ -25591,27 +25675,27 @@
         <v>105</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="83"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="27" t="s">
         <v>96</v>
       </c>
@@ -25634,7 +25718,7 @@
     <row r="14" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="83"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="29">
         <v>9</v>
       </c>
@@ -25642,20 +25726,20 @@
         <v>232</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="83"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="29">
         <v>10</v>
       </c>
@@ -25676,7 +25760,7 @@
     <row r="16" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="83"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="29">
         <v>11</v>
       </c>
@@ -25684,28 +25768,28 @@
         <v>212</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="83"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="29">
         <v>12</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>124</v>
@@ -25719,15 +25803,15 @@
     <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="83"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="29">
         <v>13</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>124</v>
@@ -25736,14 +25820,14 @@
         <v>105</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="83"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="29">
         <v>14</v>
       </c>
@@ -25751,7 +25835,7 @@
         <v>219</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>145</v>
@@ -25760,14 +25844,14 @@
         <v>105</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="83"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="29">
         <v>15</v>
       </c>
@@ -25784,25 +25868,25 @@
         <v>105</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="83"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="29">
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>105</v>
@@ -25813,18 +25897,18 @@
     <row r="22" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="83"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="29">
         <v>17</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>105</v>
@@ -25835,7 +25919,7 @@
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="29">
         <v>18</v>
       </c>
@@ -25843,7 +25927,7 @@
         <v>223</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>124</v>
@@ -25852,14 +25936,14 @@
         <v>105</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="83"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="29">
         <v>19</v>
       </c>
@@ -25881,15 +25965,15 @@
     <row r="25" spans="1:10" ht="206.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="29">
         <v>20</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>124</v>
@@ -25903,7 +25987,7 @@
     <row r="26" spans="1:10" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="83"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="29">
         <v>21</v>
       </c>
@@ -25917,7 +26001,7 @@
         <v>104</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="50"/>
@@ -25925,7 +26009,7 @@
     <row r="27" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="83"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="29">
         <v>22</v>
       </c>
@@ -25947,15 +26031,15 @@
     <row r="28" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="83"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="29">
         <v>23</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>104</v>
@@ -25969,7 +26053,7 @@
     <row r="29" spans="1:10" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="83"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="29">
         <v>24</v>
       </c>
@@ -25983,7 +26067,7 @@
         <v>104</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="50"/>
@@ -25991,18 +26075,18 @@
     <row r="30" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="83"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="29">
         <v>25</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>105</v>
@@ -26012,8 +26096,8 @@
     </row>
     <row r="31" spans="1:10" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="29">
         <v>26</v>
       </c>
@@ -26034,21 +26118,21 @@
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="62"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="78"/>
     </row>
     <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="82"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="7" t="s">
         <v>96</v>
       </c>
@@ -26071,7 +26155,7 @@
     <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="83"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="11">
         <v>27</v>
       </c>
@@ -26085,14 +26169,14 @@
         <v>104</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="83"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="11">
         <v>28</v>
       </c>
@@ -26100,79 +26184,79 @@
         <v>238</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="50" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="83"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="11">
         <v>29</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" s="50" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="83"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="11">
         <v>30</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
     </row>
     <row r="39" spans="1:9" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="25"/>
-      <c r="C39" s="78"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="7" t="s">
         <v>96</v>
       </c>
@@ -26195,64 +26279,64 @@
     <row r="40" spans="1:9" s="50" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="79"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="11">
         <v>31</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" s="50" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="79"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="11">
         <v>32</v>
       </c>
       <c r="E41" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>308</v>
-      </c>
       <c r="I41" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="57"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="25"/>
-      <c r="C43" s="82"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="7" t="s">
         <v>96</v>
       </c>
@@ -26275,15 +26359,15 @@
     <row r="44" spans="1:9" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="83"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="11">
         <v>33</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>124</v>
@@ -26296,7 +26380,7 @@
     <row r="45" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="83"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="11">
         <v>34</v>
       </c>
@@ -26304,7 +26388,7 @@
         <v>185</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>187</v>
@@ -26319,15 +26403,15 @@
     <row r="46" spans="1:9" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="83"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="11">
         <v>35</v>
       </c>
       <c r="E46" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>124</v>
@@ -26340,7 +26424,7 @@
     <row r="47" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="83"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="11">
         <v>36</v>
       </c>
@@ -26348,20 +26432,20 @@
         <v>246</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="83"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="11">
         <v>37</v>
       </c>
@@ -26382,7 +26466,7 @@
     <row r="49" spans="1:9" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="83"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="11">
         <v>38</v>
       </c>
@@ -26403,7 +26487,7 @@
     <row r="50" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="83"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="11">
         <v>39</v>
       </c>
@@ -26423,8 +26507,8 @@
     </row>
     <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="11">
         <v>40</v>
       </c>
@@ -26432,7 +26516,7 @@
         <v>248</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>104</v>
@@ -33970,14 +34054,14 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="29.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="52.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="102.5" style="5" customWidth="1"/>
     <col min="4" max="16384" width="12.625" style="5"/>
   </cols>
   <sheetData>
@@ -34026,19 +34110,26 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90">
+      <c r="A6" s="70">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+    </row>
+    <row r="7" spans="1:3" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="70">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D966CFF-B0A3-4D4F-9729-14DAE060097E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB9F85A-BE9F-4BF8-A3C2-A9BB8611C900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="342">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -1610,6 +1610,191 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>プロファイルサイズ拡張について</t>
+    <rPh sb="9" eb="11">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Size in MBs</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Dynamic VHD(X) allocation</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogixの仕様上【Size in MBs】で設定したVHD(x)のサイズは後から拡張不可能。
+【Dynamic VHD(X) allocation】の設定が有効になっている場合はFSLogix側で必要最小限の容量から必要があればサイズを自動拡大し、【Size in MBs】の設定サイズまで拡張される。
+GPOなりレジストリで変更を行った場合、変更後から新規にログオンしたユーザーに対しては新しく設定したサイズで作成されるので、既存ユーザーでプロファイルサイズの容量拡張が必要な場合は以下の手法で対応する。
+1. 既存プロファイルでデスクトップ、ドキュメント、お気に入りなどをファイルサーバなどに退避する。
+2. 既存プロファイルのFSLogixプロファイル（＝VHD(x)）保管フォルダを削除するか、フォルダごと移動させる。
+3. 再度拡張したいユーザーでログオン（この時点で新しいサイズで再作成される）
+4. 1.で退避したデータを書き戻し、アプリの設定を行う
+※frxコマンドでプロファイルをコピーする手法があるようなのだが、4/20時点では未検証。（上記方法は確認済み）</t>
+    <rPh sb="8" eb="11">
+      <t>シヨウジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>カクチョウフカノウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="101" eb="106">
+      <t>ヒツヨウサイショウゲン</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="121" eb="125">
+      <t>ジドウカクダイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="235" eb="239">
+      <t>ヨウリョウカクチョウ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="287" eb="288">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>タイヒ</t>
+    </rPh>
+    <rPh sb="311" eb="313">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="349" eb="351">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="371" eb="375">
+      <t>サイドカクチョウ</t>
+    </rPh>
+    <rPh sb="390" eb="392">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="393" eb="394">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="400" eb="403">
+      <t>サイサクセイ</t>
+    </rPh>
+    <rPh sb="414" eb="416">
+      <t>タイヒ</t>
+    </rPh>
+    <rPh sb="422" eb="423">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="424" eb="425">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="431" eb="433">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="434" eb="435">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="459" eb="461">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="475" eb="477">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="479" eb="482">
+      <t>ミケンショウ</t>
+    </rPh>
+    <rPh sb="484" eb="488">
+      <t>ジョウキホウホウ</t>
+    </rPh>
+    <rPh sb="489" eb="492">
+      <t>カクニンズ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
@@ -2461,9 +2646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25430,7 +25613,7 @@
   <dimension ref="A1:J926"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25617,7 +25800,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>261</v>
@@ -25663,7 +25846,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>171</v>
@@ -34053,8 +34236,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34076,7 +34259,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="131.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A3" s="48">
         <v>1</v>
       </c>
@@ -34087,7 +34270,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
         <v>2</v>
       </c>
@@ -34098,7 +34281,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="131.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A5" s="48">
         <v>3</v>
       </c>
@@ -34131,9 +34314,16 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+    <row r="8" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+      <c r="A8" s="70">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30"/>

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB9F85A-BE9F-4BF8-A3C2-A9BB8611C900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F945110-2E94-4CC6-BBE2-01AB1581FB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15840" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="344">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -1795,6 +1795,274 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>プロファイルサイズ拡張について（その2）</t>
+    <rPh sb="9" eb="11">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">frxコマンドによるプロファイルマイグレーションを検証したので追記。
+frx.exe自体は【C:\Program Files\FSLogix\Apps】内にあって、コマンドプロンプトかPowerShell内で実行する。
+詳細なコマンドラインリファレンスは以下のMS Docsを参照のこと。
+https://docs.microsoft.com/en-us/fslogix/command-line-utility-reference
+プロファイルサイズの拡張を行う場合は以下の条件を満たしている必要がある。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1. 端末のローカル管理者権限を保持しているユーザーでログオンしている
+2. 拡張を行うユーザープロファイルVHD(x)ファイルにアクセスできる
+3. 拡張を行うユーザーがログオンしていない（=VHD(x)ファイルをアタッチしていない）こと
+4. GPOもしくは直接レジストリを変更して【HKLM\Software\FSLogix】配下の設定が変更したい状態になっていること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+コマンドラインは以下の通り。（vhd、vhdxいずれの形式でも実行できることを確認済み）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">frx migrate-vhd -src=\\&lt;変更元VHD(x)格納先&gt;\&lt;変更元&gt;.vhd(x) -dest=\\&lt;変更先VHD(x)格納先&gt;\&lt;変更先&gt;.vhd(x)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ロジック的にはレジストリを読み込んで設定に応じた新規VHD(x)ファイルを作成し、古いVHD(x)ファイルからプロファイルデータをコピーしている模様。
+プロファイル格納先フォルダ内に複数のVHD(x)ファイルが存在する場合、ファイル名昇順で最初に存在するVHD(x)ファイルにFSLogixはアタッチをするので注意すること。（私は検証中、コピーを取っておいた古いファイルも置いておいたら古いファイルをFSLogixがアタッチしてしまい、ディスク容量が増えてないと焦ってしまった……）</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="264" eb="267">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="293" eb="295">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="385" eb="387">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="393" eb="395">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="420" eb="422">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="423" eb="425">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="426" eb="428">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="431" eb="433">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="450" eb="452">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="453" eb="454">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="469" eb="471">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="473" eb="475">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="481" eb="484">
+      <t>カクニンズ</t>
+    </rPh>
+    <rPh sb="511" eb="514">
+      <t>ヘンコウモト</t>
+    </rPh>
+    <rPh sb="520" eb="523">
+      <t>カクノウサキ</t>
+    </rPh>
+    <rPh sb="526" eb="529">
+      <t>ヘンコウモト</t>
+    </rPh>
+    <rPh sb="549" eb="550">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="564" eb="565">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="578" eb="579">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="587" eb="588">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="589" eb="590">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="592" eb="594">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="595" eb="596">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="598" eb="600">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="611" eb="613">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="615" eb="616">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="646" eb="648">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="656" eb="659">
+      <t>カクノウサキ</t>
+    </rPh>
+    <rPh sb="663" eb="664">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="665" eb="667">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="679" eb="681">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="683" eb="685">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="690" eb="693">
+      <t>メイショウジュン</t>
+    </rPh>
+    <rPh sb="694" eb="696">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="697" eb="699">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="729" eb="731">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="737" eb="738">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="739" eb="742">
+      <t>ケンショウチュウ</t>
+    </rPh>
+    <rPh sb="747" eb="748">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="753" eb="754">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="760" eb="761">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="767" eb="768">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="796" eb="798">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="799" eb="800">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="805" eb="806">
+      <t>アセ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
@@ -34236,9 +34504,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34325,9 +34591,16 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+    <row r="9" spans="1:3" ht="333" x14ac:dyDescent="0.2">
+      <c r="A9" s="70">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="30"/>

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F945110-2E94-4CC6-BBE2-01AB1581FB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373C871-8FDE-4A83-9FB3-179BC0970E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15840" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1395" windowWidth="29040" windowHeight="15840" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="349">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -1016,10 +1016,6 @@
     </r>
   </si>
   <si>
-    <t>FSLogix グループポリシー一覧（2021/2/1時点／Ver2.9.7654.46150）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>Advanced</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1028,10 +1024,6 @@
     <rPh sb="10" eb="14">
       <t>ショウサイセッテイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>FSLogix GPO設定項目一覧（2021/2/1時点／Ver2.9.7654.46150）</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1148,41 +1140,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>Azure NetApp Filesをプロファイル格納先に使用する場合はProfile Containerモードで設定するのが良い。
-（Azure NetApp FilesとCloud Cacheモードを併用すると、多段でライトバックキャッシュがかかる事になるためプロファイル破損が起きやすくなる）</t>
-    <rPh sb="25" eb="28">
-      <t>カクノウサキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヘイヨウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>タダン</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ハソン</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>プロキシディレクトリの場所を変更することは可能だが、Cドライブがない場合にのみ行うことを強く推奨する。プロキシディレクトリにはデータは含まれない</t>
     <rPh sb="44" eb="45">
       <t>ツヨ</t>
@@ -1210,26 +1167,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>No38と連携して設定</t>
-    <rPh sb="5" eb="7">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>No36と連携して設定</t>
-    <rPh sb="5" eb="7">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1803,6 +1740,72 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>FSLogix グループポリシー一覧（2021/7/15時点／Ver2.9.7838.44263）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>プロファイルサイズ拡張について（その3）</t>
+    <rPh sb="9" eb="11">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2021/7のFSLogix更新に伴い、GPOからの設定変更のみでプロファイル容量拡張が可能になったため、上記その1、その2についてはあまり利用価値がなくなってしまったものと考える。とは言え、今使っていないプロファイルの拡張などオフライン処理できるメリットはあるので、GPOでまとめてやるのか、個別対応で行う時などケースバイケースでの対応になるかと思われる。</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>セッテイヘンコウ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>ヨウリョウカクチョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>リヨウカチ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>イマツカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="147" eb="151">
+      <t>コベツタイオウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">frxコマンドによるプロファイルマイグレーションを検証したので追記。
 frx.exe自体は【C:\Program Files\FSLogix\Apps】内にあって、コマンドプロンプトかPowerShell内で実行する。
@@ -1814,7 +1817,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
@@ -1827,7 +1830,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
@@ -1840,7 +1843,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
@@ -1851,7 +1854,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
@@ -2063,12 +2066,233 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure NetApp Filesをプロファイル格納先に使用する場合はProfile Containerモードで設定するのが良い。
+（Azure NetApp FilesとCloud Cacheモードを併用すると、多段でライトバックキャッシュがかかる事になるためプロファイル破損が起きやすくなる）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※2021/7の更新でこの辺を対処したと思われるリリースノートの記述がある。</t>
+    </r>
+    <rPh sb="25" eb="28">
+      <t>カクノウサキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>タダン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ハソン</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Refresh User Policy</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Office 365 Containers 2004</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Office365コンテナに設定が格納されていて、GPO側の設定と競合する場合において通常はGPOが適用されますが、設定によってはコンテナに格納されている設定が優先されてしまう場合があります。本項目を有効化することで、既存のコンテナに入っている設定をGPOからの設定で上書きすることでユーザー設定を完全に再読み込みします。
+注意：本ポリシーを有効化した場合、パフォーマンスの影響が発生します。GPO設定を上書きする必要がある時のみ有効化し、処理後使用しない設定に戻すことを推奨します。</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>ホンコウモク</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="171" eb="174">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="215" eb="218">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="220" eb="223">
+      <t>ショリゴ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No39と連携して設定</t>
+    <rPh sb="5" eb="7">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No37と連携して設定</t>
+    <rPh sb="5" eb="7">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix GPO設定項目一覧（2021/7/15時点／Ver2.9.7838.44263）</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,6 +2416,29 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2237,7 +2484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2414,11 +2661,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2632,6 +2894,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2691,6 +2956,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2930,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
@@ -2939,34 +3222,34 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
       <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="F5" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="74"/>
       <c r="F6" s="35" t="s">
         <v>5</v>
       </c>
@@ -2975,7 +3258,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="37"/>
       <c r="F7" s="35" t="s">
@@ -2998,10 +3281,10 @@
       <c r="B9" s="36"/>
       <c r="C9" s="52"/>
       <c r="D9" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>298</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3017,11 +3300,11 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="F11" s="35" t="s">
         <v>13</v>
       </c>
@@ -3053,10 +3336,10 @@
       <c r="B14" s="39"/>
       <c r="C14" s="52"/>
       <c r="D14" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>298</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3100,9 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29D9212-14A3-4730-AD8B-FBCB3F81376D}">
   <dimension ref="A1:G899"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3119,7 +3400,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3129,15 +3410,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -3218,7 +3499,7 @@
         <v>113</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
@@ -3473,7 +3754,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>105</v>
@@ -10595,9 +10876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED09EC01-ADD4-4EA8-B55C-53A7780E0006}">
   <dimension ref="A1:G881"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10613,7 +10892,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10623,15 +10902,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -10663,7 +10942,7 @@
         <v>158</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>124</v>
@@ -10710,7 +10989,7 @@
         <v>162</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17725,9 +18004,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F88FC08-CEED-4247-A1DC-5F5105580B62}">
-  <dimension ref="A1:I929"/>
+  <dimension ref="A1:I930"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17736,7 +18015,7 @@
     <col min="5" max="5" width="38.125" style="50" customWidth="1"/>
     <col min="6" max="6" width="47.875" style="50" customWidth="1"/>
     <col min="7" max="7" width="26.75" style="50" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="50" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.75" style="50" customWidth="1"/>
     <col min="10" max="31" width="7.625" style="50" customWidth="1"/>
     <col min="32" max="16384" width="12.625" style="50"/>
@@ -17744,7 +18023,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17756,17 +18035,17 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -17853,7 +18132,7 @@
         <v>167</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="243.75" x14ac:dyDescent="0.2">
@@ -17897,7 +18176,7 @@
         <v>167</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
@@ -17962,7 +18241,7 @@
         <v>113</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.2">
@@ -18071,7 +18350,7 @@
         <v>167</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
@@ -18180,7 +18459,7 @@
         <v>167</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
@@ -18248,16 +18527,16 @@
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
@@ -18366,7 +18645,7 @@
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="71" customFormat="1" ht="206.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="24"/>
       <c r="C31" s="64"/>
@@ -18374,20 +18653,20 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="24"/>
       <c r="C32" s="64"/>
@@ -18395,22 +18674,20 @@
         <v>27</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="24"/>
       <c r="C33" s="64"/>
@@ -18418,20 +18695,22 @@
         <v>28</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="24"/>
       <c r="C34" s="64"/>
@@ -18439,20 +18718,18 @@
         <v>29</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>231</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
@@ -18462,20 +18739,22 @@
         <v>30</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="I35" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="24"/>
       <c r="C36" s="64"/>
@@ -18483,100 +18762,98 @@
         <v>31</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="65"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="11">
         <v>32</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="11">
+        <v>33</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="87"/>
-    </row>
-    <row r="39" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="168.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="88"/>
+    </row>
+    <row r="40" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
       <c r="B40" s="25"/>
       <c r="C40" s="63"/>
-      <c r="D40" s="11">
-        <v>33</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
       <c r="B41" s="25"/>
       <c r="C41" s="63"/>
@@ -18584,41 +18861,43 @@
         <v>34</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="25"/>
       <c r="C42" s="63"/>
       <c r="D42" s="11">
         <v>35</v>
       </c>
-      <c r="E42" s="68" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>325</v>
+      <c r="E42" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>308</v>
+        <v>104</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="25"/>
       <c r="C43" s="63"/>
@@ -18626,79 +18905,79 @@
         <v>36</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-    </row>
-    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="7" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="11">
+        <v>37</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="85"/>
+    </row>
+    <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H46" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I46" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="11">
-        <v>37</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="24"/>
       <c r="C47" s="60"/>
@@ -18706,79 +18985,79 @@
         <v>38</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>327</v>
+        <v>303</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>309</v>
+        <v>104</v>
       </c>
       <c r="H47" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="11">
+        <v>39</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="85" t="s">
+      <c r="H48" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
-    </row>
-    <row r="49" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="87"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+    </row>
+    <row r="50" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H50" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="11">
-        <v>39</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="24"/>
       <c r="C51" s="63"/>
@@ -18786,20 +19065,20 @@
         <v>40</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="24"/>
       <c r="C52" s="63"/>
@@ -18807,20 +19086,20 @@
         <v>41</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="24"/>
       <c r="C53" s="63"/>
@@ -18828,47 +19107,60 @@
         <v>42</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="69"/>
+    <row r="54" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="11">
         <v>43</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
+    <row r="55" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="62"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="11">
+        <v>44</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="30"/>
@@ -25862,13 +26154,21 @@
       <c r="H929" s="30"/>
       <c r="I929" s="30"/>
     </row>
+    <row r="930" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D930" s="30"/>
+      <c r="E930" s="30"/>
+      <c r="F930" s="31"/>
+      <c r="G930" s="32"/>
+      <c r="H930" s="30"/>
+      <c r="I930" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C45:I45"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B49:I49"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -25880,9 +26180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J926"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25900,7 +26198,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25912,17 +26210,17 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
@@ -25990,7 +26288,7 @@
         <v>105</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -26056,7 +26354,7 @@
         <v>105</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J8" s="50"/>
     </row>
@@ -26068,7 +26366,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>261</v>
@@ -26080,7 +26378,7 @@
         <v>105</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J9" s="50"/>
     </row>
@@ -26092,7 +26390,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>262</v>
@@ -26114,7 +26412,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>171</v>
@@ -26126,22 +26424,22 @@
         <v>105</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -26184,7 +26482,7 @@
         <v>105</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
@@ -26295,7 +26593,7 @@
         <v>105</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J19" s="50"/>
     </row>
@@ -26569,16 +26867,16 @@
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="78"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
@@ -26644,7 +26942,7 @@
         <v>265</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="50" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.2">
@@ -26655,16 +26953,16 @@
         <v>29</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I36" s="12"/>
     </row>
@@ -26676,33 +26974,33 @@
         <v>30</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
+      <c r="C38" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
@@ -26735,16 +27033,16 @@
         <v>31</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I40" s="12"/>
     </row>
@@ -26756,33 +27054,33 @@
         <v>32</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -34558,53 +34856,60 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="70">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="198" x14ac:dyDescent="0.2">
       <c r="A8" s="70">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="264" x14ac:dyDescent="0.2">
+      <c r="A9" s="92">
+        <v>7</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="96" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="333" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="94">
+        <v>8</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="30"/>

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373C871-8FDE-4A83-9FB3-179BC0970E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981BF3D-64A0-4B4C-8CD9-6C969B52E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1395" windowWidth="29040" windowHeight="15840" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -1740,10 +1740,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>FSLogix グループポリシー一覧（2021/7/15時点／Ver2.9.7838.44263）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>プロファイルサイズ拡張について（その3）</t>
     <rPh sb="9" eb="11">
       <t>カクチョウ</t>
@@ -2285,6 +2281,10 @@
   </si>
   <si>
     <t>FSLogix GPO設定項目一覧（2021/7/15時点／Ver2.9.7838.44263）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix グループポリシー一覧（2021/12/03時点／Ver2.9.7979.62170）</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2897,6 +2897,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2956,24 +2974,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3213,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
@@ -3222,34 +3222,34 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="F5" s="35" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="80"/>
       <c r="F6" s="35" t="s">
         <v>5</v>
       </c>
@@ -3300,11 +3300,11 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="F11" s="35" t="s">
         <v>13</v>
       </c>
@@ -3400,7 +3400,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3410,15 +3410,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -10892,7 +10892,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10902,15 +10902,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -18023,7 +18023,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18035,17 +18035,17 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -18527,16 +18527,16 @@
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80"/>
     </row>
     <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
@@ -18653,16 +18653,16 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I31" s="11"/>
     </row>
@@ -18819,16 +18819,16 @@
     </row>
     <row r="39" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="94"/>
     </row>
     <row r="40" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
@@ -18938,21 +18938,21 @@
         <v>305</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="58"/>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="85"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
     </row>
     <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
@@ -19018,21 +19018,21 @@
         <v>305</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="74"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="80"/>
     </row>
     <row r="50" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
@@ -26198,7 +26198,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -26210,17 +26210,17 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
@@ -26430,16 +26430,16 @@
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
     </row>
     <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -26867,16 +26867,16 @@
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="79"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
@@ -26992,15 +26992,15 @@
     <row r="38" spans="1:9" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="85"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
@@ -27071,16 +27071,16 @@
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="80"/>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -34864,7 +34864,7 @@
         <v>314</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34874,7 +34874,7 @@
       <c r="B7" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="77" t="s">
         <v>332</v>
       </c>
     </row>
@@ -34885,30 +34885,30 @@
       <c r="B8" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="77" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="264" x14ac:dyDescent="0.2">
-      <c r="A9" s="92">
+      <c r="A9" s="72">
         <v>7</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="96" t="s">
-        <v>341</v>
+      <c r="C9" s="76" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A10" s="94">
+      <c r="A10" s="74">
         <v>8</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="75" t="s">
         <v>339</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981BF3D-64A0-4B4C-8CD9-6C969B52E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C451D-9D01-4358-A406-FC788BC25D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="設定項目一覧【Profile Containers】" sheetId="2" r:id="rId5"/>
     <sheet name="エラーコード一覧" sheetId="3" r:id="rId6"/>
     <sheet name="チューニングTips" sheetId="4" r:id="rId7"/>
+    <sheet name="アプリケーションマスク簡易レポ" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="380">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -2280,11 +2281,895 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>FSLogix GPO設定項目一覧（2021/7/15時点／Ver2.9.7838.44263）</t>
+    <t>FSLogix グループポリシー一覧（2022/1/27時点／Ver2.9.7979.62170）</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>FSLogix グループポリシー一覧（2021/12/03時点／Ver2.9.7979.62170）</t>
+    <t>FSLogix アプリケーションマスク簡易レポ</t>
+    <rPh sb="19" eb="21">
+      <t>カンイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FSLogix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプケーションマスクは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>FSLogix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>Microsoft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に買収される前の開発初期プロダクトから含まれていた機能。</t>
+    </r>
+    <rPh sb="37" eb="39">
+      <t>バイシュウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>利用するユーザーによってアプリを隠したりする事が可能。</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>これにより、Azure Viretual DesktopなどVDI環境化でのセッションホストマスターの数を削減することが可能となる。</t>
+    <rPh sb="33" eb="36">
+      <t>カンキョウカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>利用自体は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSLogix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が使えていれば問題ないが、以下はある事が望ましい。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・アプリケーションマスクルール作成用に展開するクライアントマスターと同じ構造のマシンを用意する。</t>
+    <rPh sb="15" eb="18">
+      <t>サクセイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Azure Virtual Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の場合はセッションホストマスターイメージから別に1台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を立てればよい）</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix GPO設定項目一覧（2022/1/27時点／Ver2.9.7979.62170）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・ユーザーやグループの設定を行うためにドメインに参加していることが望ましく、かつドメイン管理者権限で作業するのが楽</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSLogix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のプログラムをダウンロードし、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSLogixAppRuleEditiorSetup.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を実行</t>
+    </r>
+    <rPh sb="54" eb="56">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>今回の実験は【Windows10 Enterprise Multi-Session 20H2及び21H2】にて実施</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>（VMを日本語化し、以下の試験アプリを導入して実験した。バージョンは記載日時点で入手できる最新のもの）</t>
+    <rPh sb="4" eb="8">
+      <t>ニホンゴカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Apache OpenOffice</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adobe Acrobat Reader</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・サクラエディタ</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WinMerge</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WinShot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（インストーラーを使用しないアプリの例で用意。所定フォルダを作成して実行ファイル類をコピー、手動で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のデスクトップにショートカットを作成）</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作成の仔細は下記</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microsoft Docs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を参照のこと。ここでは作成時に気がついた点などを追記しておく。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ja-jp/fslogix/application-masking-users-groups-ht</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ja-jp/fslogix/implement-application-masking-tutorial</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・WinShotを試した際、インストールしたフォルダだけを指定したが、その際デスクトップに作成したショートカットも自動的に探索してマスク対象リストに自動追加してくれた</t>
+    <rPh sb="9" eb="10">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・インストール一覧から選択した場合、msiインストール情報をスキャンして単純にフォルダやショートカットだけでなくレジストリの設定値まで自動的に対象としてくれた</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・それにより、マスクが作動するとインストールフォルダやショートカットのみならず【アプリと機能】のインストール一覧からも該当のソフトが消滅し、元からインストールされていなかったかのように見える</t>
+    <rPh sb="11" eb="13">
+      <t>サドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ショウメツ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・作成したルールファイルは *.fxa、*.fxrという2つのファイルが生成される</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・実行は上記の *.fxa、*.fxrファイルをペアにして【C:\Program Files\Fslogix\Apps\Rules】にコピーすれば動作する</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・ルールのアサインメニューで適用するユーザーやグループを指定できるが、暗黙的には【Applies】が【Yes】と認識されるような動きをしていた</t>
+    <rPh sb="14" eb="16">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>アンモクテキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・適用させたくないユーザーやグループがある場合（ドメインの管理者権限など）は明示的に【Applies】を【No】で記述するようにした方が良い</t>
+    <rPh sb="1" eb="3">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・1つのルールにアレコレ乗っけてしまうより、できるだけシンプルに作成してルールファイルをGPOなどで配布する際に考慮した方が運用的には楽と思われる</t>
+    <rPh sb="12" eb="13">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ラク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・トラブル発生時などは上記のファイルを指定配置場所から削除するか移動すれば直ちに適用が解除される</t>
+    <rPh sb="5" eb="8">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・ルールエディタ上で設定したルールを右クリックして【Apply Rules to System】を使えばその場でマスクの適用状態を実際に確認できる</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※画像入れたりしてもう少し綺麗にまとめる予定ですが、取り急ぎ上記試してみて気がついたことなどを。</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イソ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2022/1/27 Dai.Iwai</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2292,7 +3177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2437,6 +3322,45 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2677,10 +3601,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2975,8 +3900,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3213,7 +4151,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
@@ -3400,7 +4338,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10892,7 +11830,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18023,7 +18961,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -26198,7 +27136,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -38876,4 +39814,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB03C5B5-06D5-4F15-868A-0EAB067B05D1}">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="98" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="99" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="100" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="99" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="100" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="99" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="99" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="100" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="99" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="100" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="100" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="101" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="101" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="99" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="99" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="99" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="99" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="99" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="99" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="99" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="99" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="99" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="98" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <hyperlinks>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{92C57657-3151-41E5-BC3E-B76652A81B50}"/>
+    <hyperlink ref="A21" r:id="rId2" xr:uid="{0EA78FAC-570C-4987-95F0-7A1E80D235C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C451D-9D01-4358-A406-FC788BC25D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4197ED-1D00-47C8-806D-CBA0655E59E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="210" windowWidth="27780" windowHeight="15135" tabRatio="909" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="384">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -596,12 +596,6 @@
 ※Cloud Cache機能を使用する場合、本項目は設定しないでください。</t>
   </si>
   <si>
-    <t>Include Office cache data in container</t>
-  </si>
-  <si>
-    <t>【有効】に設定するとOfficeキャッシュデータがOffice365コンテナに含まれます</t>
-  </si>
-  <si>
     <t>Include OneDrive data in container</t>
   </si>
   <si>
@@ -1100,30 +1094,11 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>No18と連携して設定</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>No3と連携して設定</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No8と連携して設定</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>No13と連携して設定</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>No33に設定がある場合はそちらが優先されるが、排他設定することを推奨
-Office365コンテナモードで使う場合に設定</t>
-    <rPh sb="24" eb="26">
-      <t>ハイタ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -2261,30 +2236,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>No39と連携して設定</t>
-    <rPh sb="5" eb="7">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>No37と連携して設定</t>
-    <rPh sb="5" eb="7">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>FSLogix グループポリシー一覧（2022/1/27時点／Ver2.9.7979.62170）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>FSLogix アプリケーションマスク簡易レポ</t>
     <rPh sb="19" eb="21">
       <t>カンイ</t>
@@ -2528,10 +2479,6 @@
     <rPh sb="51" eb="52">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>FSLogix GPO設定項目一覧（2022/1/27時点／Ver2.9.7979.62170）</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -3172,12 +3119,105 @@
     <t>2022/1/27 Dai.Iwai</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>FSLogix グループポリシー一覧（2022/3/30時点／Ver2.9.8111.53415）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2022/3/30 Dai.Iwai</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>実験した結果は下記にまとめました。併せてご参照ください。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.docswell.com/s/dai-peugeot306/5YMXE5-fslogix-appmask/1</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/DaisukeIwai2/fslogix</t>
+  </si>
+  <si>
+    <t>（両方とも中身は同じです）</t>
+    <rPh sb="1" eb="3">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix GPO設定項目一覧（2022/3/30時点／Ver2.9.8111.53415）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No17と連携して設定</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No32に設定がある場合はそちらが優先されるが、排他設定することを推奨
+Office365コンテナモードで使う場合に設定</t>
+    <rPh sb="24" eb="26">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No12と連携して設定</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No7と連携して設定</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No38と連携して設定</t>
+    <rPh sb="5" eb="7">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No36と連携して設定</t>
+    <rPh sb="5" eb="7">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3360,6 +3400,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -3605,7 +3660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3840,6 +3895,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3898,18 +3971,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4135,7 +4196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4151,7 +4214,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
@@ -4160,34 +4223,34 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
       <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="F5" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="80"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="86"/>
       <c r="F6" s="35" t="s">
         <v>5</v>
       </c>
@@ -4196,7 +4259,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" s="37"/>
       <c r="F7" s="35" t="s">
@@ -4219,10 +4282,10 @@
       <c r="B9" s="36"/>
       <c r="C9" s="52"/>
       <c r="D9" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -4238,11 +4301,11 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="F11" s="35" t="s">
         <v>13</v>
       </c>
@@ -4274,10 +4337,10 @@
       <c r="B14" s="39"/>
       <c r="C14" s="52"/>
       <c r="D14" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -4338,7 +4401,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4348,15 +4411,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -4437,7 +4500,7 @@
         <v>113</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
@@ -4692,7 +4755,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>105</v>
@@ -11830,7 +11893,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11840,15 +11903,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="80"/>
+      <c r="A2" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -11880,7 +11943,7 @@
         <v>158</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>124</v>
@@ -11927,7 +11990,7 @@
         <v>162</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18942,9 +19005,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F88FC08-CEED-4247-A1DC-5F5105580B62}">
-  <dimension ref="A1:I930"/>
+  <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18961,7 +19024,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18973,17 +19036,17 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
+      <c r="A2" s="93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -19070,7 +19133,7 @@
         <v>167</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="243.75" x14ac:dyDescent="0.2">
@@ -19114,7 +19177,7 @@
         <v>167</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
@@ -19138,7 +19201,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="131.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="56"/>
       <c r="C10" s="23"/>
@@ -19148,18 +19211,20 @@
       <c r="E10" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>180</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="56"/>
       <c r="C11" s="23"/>
@@ -19173,16 +19238,14 @@
         <v>182</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="56"/>
       <c r="C12" s="23"/>
@@ -19196,14 +19259,16 @@
         <v>184</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="I12" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="56"/>
       <c r="C13" s="23"/>
@@ -19211,20 +19276,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>188</v>
-      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
@@ -19247,7 +19310,7 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="56"/>
       <c r="C15" s="23"/>
@@ -19261,14 +19324,16 @@
         <v>192</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="I15" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="56"/>
       <c r="C16" s="23"/>
@@ -19276,22 +19341,20 @@
         <v>13</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="12" t="s">
         <v>194</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="G16" s="13" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="56"/>
       <c r="C17" s="23"/>
@@ -19305,14 +19368,16 @@
         <v>197</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="I17" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="56"/>
       <c r="C18" s="23"/>
@@ -19326,16 +19391,14 @@
         <v>199</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="56"/>
       <c r="C19" s="23"/>
@@ -19356,7 +19419,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="56"/>
       <c r="C20" s="23"/>
@@ -19366,7 +19429,7 @@
       <c r="E20" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>203</v>
       </c>
       <c r="G20" s="13" t="s">
@@ -19375,9 +19438,11 @@
       <c r="H20" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="I20" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="56"/>
       <c r="C21" s="23"/>
@@ -19387,7 +19452,7 @@
       <c r="E21" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>205</v>
       </c>
       <c r="G21" s="13" t="s">
@@ -19396,9 +19461,7 @@
       <c r="H21" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>309</v>
-      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
@@ -19442,64 +19505,64 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="11">
+      <c r="B24" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
+    </row>
+    <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="11">
         <v>21</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-    </row>
-    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="H26" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="24"/>
       <c r="C27" s="64"/>
@@ -19507,20 +19570,20 @@
         <v>22</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="24"/>
       <c r="C28" s="64"/>
@@ -19534,14 +19597,14 @@
         <v>216</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="24"/>
       <c r="C29" s="64"/>
@@ -19562,7 +19625,7 @@
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="71" customFormat="1" ht="206.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="24"/>
       <c r="C30" s="64"/>
@@ -19570,20 +19633,20 @@
         <v>25</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" s="71" customFormat="1" ht="206.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="24"/>
       <c r="C31" s="64"/>
@@ -19591,20 +19654,20 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="24"/>
       <c r="C32" s="64"/>
@@ -19614,18 +19677,20 @@
       <c r="E32" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="12" t="s">
         <v>222</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="I32" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="24"/>
       <c r="C33" s="64"/>
@@ -19633,22 +19698,20 @@
         <v>28</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F33" s="12" t="s">
         <v>224</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="G33" s="13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
       <c r="B34" s="24"/>
       <c r="C34" s="64"/>
@@ -19662,12 +19725,14 @@
         <v>227</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="I34" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
@@ -19677,22 +19742,20 @@
         <v>30</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="24"/>
       <c r="C36" s="64"/>
@@ -19706,17 +19769,17 @@
         <v>233</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="64"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="11">
         <v>32</v>
       </c>
@@ -19727,71 +19790,73 @@
         <v>235</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="11">
-        <v>33</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="92" t="s">
+      <c r="B38" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="94"/>
-    </row>
-    <row r="40" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
+    </row>
+    <row r="39" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
       <c r="B40" s="25"/>
       <c r="C40" s="63"/>
-      <c r="D40" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="D40" s="11">
+        <v>33</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
       <c r="B41" s="25"/>
       <c r="C41" s="63"/>
@@ -19801,41 +19866,39 @@
       <c r="E41" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>239</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="25"/>
       <c r="C42" s="63"/>
       <c r="D42" s="11">
         <v>35</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>241</v>
+      <c r="E42" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="25"/>
       <c r="C43" s="63"/>
@@ -19843,79 +19906,79 @@
         <v>36</v>
       </c>
       <c r="E43" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="97"/>
+    </row>
+    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="11">
+        <v>37</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="11">
-        <v>37</v>
-      </c>
-      <c r="E44" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="91"/>
-    </row>
-    <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="24"/>
       <c r="C47" s="60"/>
@@ -19923,79 +19986,79 @@
         <v>38</v>
       </c>
       <c r="E47" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="11">
+      <c r="B48" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="86"/>
+    </row>
+    <row r="49" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="11">
         <v>39</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-    </row>
-    <row r="50" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="24"/>
       <c r="C51" s="63"/>
@@ -20009,14 +20072,14 @@
         <v>243</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="24"/>
       <c r="C52" s="63"/>
@@ -20030,14 +20093,14 @@
         <v>245</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="24"/>
       <c r="C53" s="63"/>
@@ -20051,17 +20114,17 @@
         <v>247</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="63"/>
+    <row r="54" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="62"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="69"/>
       <c r="D54" s="11">
         <v>43</v>
       </c>
@@ -20072,33 +20135,20 @@
         <v>249</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>167</v>
       </c>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="11">
-        <v>44</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I55" s="11"/>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="30"/>
@@ -27092,21 +27142,13 @@
       <c r="H929" s="30"/>
       <c r="I929" s="30"/>
     </row>
-    <row r="930" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D930" s="30"/>
-      <c r="E930" s="30"/>
-      <c r="F930" s="31"/>
-      <c r="G930" s="32"/>
-      <c r="H930" s="30"/>
-      <c r="I930" s="30"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C44:I44"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B48:I48"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -27136,7 +27178,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -27148,17 +27190,17 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
+      <c r="A2" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
@@ -27191,19 +27233,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -27214,10 +27256,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>112</v>
@@ -27226,7 +27268,7 @@
         <v>105</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -27237,10 +27279,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>104</v>
@@ -27258,10 +27300,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>104</v>
@@ -27283,7 +27325,7 @@
         <v>175</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>124</v>
@@ -27292,7 +27334,7 @@
         <v>105</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J8" s="50"/>
     </row>
@@ -27304,10 +27346,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>104</v>
@@ -27316,7 +27358,7 @@
         <v>105</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J9" s="50"/>
     </row>
@@ -27328,10 +27370,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>104</v>
@@ -27350,7 +27392,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>171</v>
@@ -27362,22 +27404,22 @@
         <v>105</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -27410,17 +27452,17 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
         <v>105</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="56.25" x14ac:dyDescent="0.2">
@@ -27431,10 +27473,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>145</v>
@@ -27452,16 +27494,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -27473,10 +27515,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>124</v>
@@ -27495,10 +27537,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>124</v>
@@ -27507,7 +27549,7 @@
         <v>105</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J18" s="50"/>
     </row>
@@ -27519,10 +27561,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>145</v>
@@ -27531,7 +27573,7 @@
         <v>105</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J19" s="50"/>
     </row>
@@ -27543,19 +27585,19 @@
         <v>15</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>105</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J20" s="50"/>
     </row>
@@ -27567,13 +27609,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>105</v>
@@ -27589,13 +27631,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>278</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>105</v>
@@ -27611,10 +27653,10 @@
         <v>18</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>124</v>
@@ -27623,7 +27665,7 @@
         <v>105</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J23" s="50"/>
     </row>
@@ -27635,10 +27677,10 @@
         <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>145</v>
@@ -27657,10 +27699,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>124</v>
@@ -27679,16 +27721,16 @@
         <v>21</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="50"/>
@@ -27701,10 +27743,10 @@
         <v>22</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>145</v>
@@ -27723,10 +27765,10 @@
         <v>23</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>104</v>
@@ -27745,16 +27787,16 @@
         <v>24</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="50"/>
@@ -27767,13 +27809,13 @@
         <v>25</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>105</v>
@@ -27789,10 +27831,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>104</v>
@@ -27805,16 +27847,16 @@
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="85"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="91"/>
     </row>
     <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
@@ -27847,16 +27889,16 @@
         <v>27</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I34" s="11"/>
     </row>
@@ -27868,19 +27910,19 @@
         <v>28</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="50" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.2">
@@ -27891,16 +27933,16 @@
         <v>29</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I36" s="12"/>
     </row>
@@ -27912,33 +27954,33 @@
         <v>30</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="91"/>
+      <c r="C38" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="97"/>
     </row>
     <row r="39" spans="1:9" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
@@ -27971,16 +28013,16 @@
         <v>31</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I40" s="12"/>
     </row>
@@ -27992,33 +28034,33 @@
         <v>32</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="80"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="86"/>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -28051,10 +28093,10 @@
         <v>33</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>124</v>
@@ -28072,19 +28114,19 @@
         <v>34</v>
       </c>
       <c r="E45" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>105</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="112.5" x14ac:dyDescent="0.2">
@@ -28095,10 +28137,10 @@
         <v>35</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>124</v>
@@ -28116,16 +28158,16 @@
         <v>36</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I47" s="11"/>
     </row>
@@ -28137,10 +28179,10 @@
         <v>37</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>124</v>
@@ -28158,10 +28200,10 @@
         <v>38</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>124</v>
@@ -28179,10 +28221,10 @@
         <v>39</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>104</v>
@@ -28200,10 +28242,10 @@
         <v>40</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>104</v>
@@ -35799,10 +35841,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -35810,10 +35852,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="198" x14ac:dyDescent="0.2">
@@ -35821,10 +35863,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="264" x14ac:dyDescent="0.2">
@@ -35832,10 +35874,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -35843,10 +35885,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -39818,168 +39860,193 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB03C5B5-06D5-4F15-868A-0EAB067B05D1}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="98"/>
+    <col min="1" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="78" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="79" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="80" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="80" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="79" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="79" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="80" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="80" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="79" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="80" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="80" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="80" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="100" t="s">
+    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="81" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="81" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99" t="s">
+    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="79" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="100" t="s">
+    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100" t="s">
+    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="79" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99" t="s">
+    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="79" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
+    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="79" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="100" t="s">
+    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="79" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="79" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="101" t="s">
+    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="79" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="79" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="99" t="s">
+    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99" t="s">
+    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="99" t="s">
+    <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99" t="s">
+    <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99" t="s">
+    <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="82" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99" t="s">
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="98" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4197ED-1D00-47C8-806D-CBA0655E59E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE644FE-0320-419B-9F62-CC90518D12D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="210" windowWidth="27780" windowHeight="15135" tabRatio="909" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="345" windowWidth="23595" windowHeight="12360" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -4196,9 +4196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19007,7 +19005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F88FC08-CEED-4247-A1DC-5F5105580B62}">
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16599078-256D-4E3F-90C9-078BA42A3FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA13A04-A87C-402B-8725-062521F8520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="585" windowWidth="19440" windowHeight="15000" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="285" windowWidth="27510" windowHeight="14775" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="517">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>PROFILE_REASON_SHORT_SID</t>
-  </si>
-  <si>
-    <t>FSLogix チューニングTips</t>
   </si>
   <si>
     <t>VHDの形式</t>
@@ -2225,14 +2222,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>FSLogix グループポリシー一覧（2022/12/29時点／Ver2.9.8361.52326）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>FSLogix GPO設定項目一覧（2022/12/29時点／Ver2.9.8361.52326）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>Logging: Search Roaming</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -4835,6 +4824,246 @@
     </rPh>
     <rPh sb="88" eb="90">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix グループポリシー一覧（2023/03/31時点／Ver2.9.8440.42104）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Roam Identity</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Registry Entry:  HKLM\SOFTWARE\FSLogix\Profiles\RoamIdentity
+Type: DWORD
+Values:  0 = Disabled, 1 = Enabled</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>v2210 HF1(2.9.8440.42104) or lator</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>AzureAD認証情報（＝トークン）をプロファイルコンテナにローミングして認証をサインインするたびに確認するかしないかの設定を行います。</t>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Webアカウントマネージャ（WAM）によって作成された資格情報（＝主にAzureAD認証）をアプリにローミングするか否かの設定です。一部のMicrosoft365 Appsではこれが無効になっている場合、FSLogixにサインインする（＝Windowsにサインインする）たびにAzureADの認証を要求されることがあります。
+※FSLogix2201まではローミングする設定。FSLogix2210でローミングしない設定に変更されたが、従来通りローミングする設定を選択できるよう本設定が追加されている。</t>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix GPO設定項目一覧（2023/03/31時点／Ver2.9.8440.42104）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>AzureAD認証情報のローミングについて</t>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix 2210への更新時にAzureAD認証情報をプロファイルコンテナにローミングしない設定に仕様変更された。コレに伴い、AzureAD JoinもしくはHybrid AzureAD Join環境でない状態で使用するとAzureAD認証を使うMicrosoft365 AppsなどでサインインするたびにAzureAD認証を求めてくることが発生する。
+そのため、2023/3にFSLogix 2210修正プログラム1を提供し、プロファイルコンテナ設定項目に従来通りのローミングを行う設定を選択できるようになっている。
+※恐らくはAzureADによるモダン管理化への布石とも思われるが、インパクトが大きすぎたのか移行期間的に設定を修正できるようになったものと思われる。</t>
+    <rPh sb="14" eb="17">
+      <t>コウシンジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="281" eb="284">
+      <t>カンリカ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>フセキ</t>
+    </rPh>
+    <rPh sb="290" eb="291">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="302" eb="303">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="309" eb="311">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="311" eb="314">
+      <t>キカンテキ</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="318" eb="320">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>FSLogix チューニングTips（2023/04/01 No9追加）</t>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -5292,7 +5521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5533,6 +5762,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5592,12 +5824,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5837,7 +6063,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
@@ -5846,34 +6072,34 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="F5" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="83"/>
       <c r="F6" s="35" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +6108,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="37"/>
       <c r="F7" s="35" t="s">
@@ -5905,10 +6131,10 @@
       <c r="B9" s="36"/>
       <c r="C9" s="50"/>
       <c r="D9" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -5924,11 +6150,11 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
       <c r="F11" s="35" t="s">
         <v>13</v>
       </c>
@@ -5960,10 +6186,10 @@
       <c r="B14" s="39"/>
       <c r="C14" s="50"/>
       <c r="D14" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -6025,7 +6251,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6036,39 +6262,39 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6077,19 +6303,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -6099,19 +6325,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -6121,22 +6347,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6145,22 +6371,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="93.75" x14ac:dyDescent="0.2">
@@ -6169,19 +6395,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H8" s="12"/>
     </row>
@@ -6191,19 +6417,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="H9" s="11"/>
     </row>
@@ -6213,19 +6439,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -6235,19 +6461,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -6257,19 +6483,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H12" s="11"/>
     </row>
@@ -6279,22 +6505,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
@@ -6303,22 +6529,22 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6327,19 +6553,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -6349,19 +6575,19 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -6371,22 +6597,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6395,19 +6621,19 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H18" s="11"/>
     </row>
@@ -6417,19 +6643,19 @@
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H19" s="11"/>
     </row>
@@ -6439,19 +6665,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H20" s="11"/>
     </row>
@@ -6461,19 +6687,19 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>219</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -6483,19 +6709,19 @@
         <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H22" s="11"/>
     </row>
@@ -6505,22 +6731,22 @@
         <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="F23" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6529,22 +6755,22 @@
         <v>21</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>230</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6553,22 +6779,22 @@
         <v>22</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6577,19 +6803,19 @@
         <v>23</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H26" s="11"/>
     </row>
@@ -14500,7 +14726,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14511,39 +14737,39 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="82"/>
+      <c r="A2" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -14552,19 +14778,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H4" s="11"/>
     </row>
@@ -14574,19 +14800,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -14596,22 +14822,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22521,7 +22747,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22534,43 +22760,43 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="A2" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="58"/>
       <c r="C3" s="20"/>
       <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="243.75" x14ac:dyDescent="0.2">
@@ -22581,19 +22807,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J4" s="11"/>
     </row>
@@ -22605,19 +22831,19 @@
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -22629,19 +22855,19 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J6" s="11"/>
     </row>
@@ -22653,19 +22879,19 @@
         <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -22677,19 +22903,19 @@
         <v>5</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J8" s="11"/>
     </row>
@@ -22701,19 +22927,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -22725,19 +22951,19 @@
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -22749,19 +22975,19 @@
         <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J11" s="11"/>
     </row>
@@ -22773,19 +22999,19 @@
         <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J12" s="11"/>
     </row>
@@ -22797,19 +23023,19 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J13" s="11"/>
     </row>
@@ -22821,19 +23047,19 @@
         <v>11</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J14" s="11"/>
     </row>
@@ -22845,19 +23071,19 @@
         <v>12</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J15" s="11"/>
     </row>
@@ -22869,19 +23095,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="G16" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J16" s="11"/>
     </row>
@@ -22893,22 +23119,22 @@
         <v>14</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.2">
@@ -22919,19 +23145,19 @@
         <v>15</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>281</v>
-      </c>
       <c r="G18" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J18" s="12"/>
     </row>
@@ -22943,22 +23169,22 @@
         <v>16</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="363" x14ac:dyDescent="0.2">
@@ -22969,19 +23195,19 @@
         <v>17</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="79" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J20" s="12"/>
     </row>
@@ -22993,22 +23219,22 @@
         <v>18</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -23019,19 +23245,19 @@
         <v>19</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J22" s="11"/>
     </row>
@@ -23043,60 +23269,60 @@
         <v>20</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
     </row>
     <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="25"/>
       <c r="C25" s="60"/>
       <c r="D25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="I25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -23107,19 +23333,19 @@
         <v>21</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="G26" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J26" s="11"/>
     </row>
@@ -23131,19 +23357,19 @@
         <v>22</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>301</v>
-      </c>
       <c r="H27" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J27" s="11"/>
     </row>
@@ -23155,19 +23381,19 @@
         <v>23</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="72" t="s">
-        <v>126</v>
-      </c>
       <c r="G28" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J28" s="11"/>
     </row>
@@ -23179,19 +23405,19 @@
         <v>24</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J29" s="11"/>
     </row>
@@ -23203,22 +23429,22 @@
         <v>25</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -23229,19 +23455,19 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>312</v>
-      </c>
       <c r="H31" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J31" s="11"/>
     </row>
@@ -23253,19 +23479,19 @@
         <v>27</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>312</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>315</v>
       </c>
       <c r="J32" s="11"/>
     </row>
@@ -23277,22 +23503,22 @@
         <v>28</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="H33" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
@@ -23303,19 +23529,19 @@
         <v>29</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J34" s="11"/>
     </row>
@@ -23327,19 +23553,19 @@
         <v>30</v>
       </c>
       <c r="E35" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>324</v>
       </c>
       <c r="J35" s="11"/>
     </row>
@@ -23351,19 +23577,19 @@
         <v>31</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J36" s="11"/>
     </row>
@@ -23375,60 +23601,60 @@
         <v>32</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
     </row>
     <row r="39" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="25"/>
       <c r="C39" s="60"/>
       <c r="D39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="G39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="I39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="330" x14ac:dyDescent="0.2">
@@ -23439,22 +23665,22 @@
         <v>33</v>
       </c>
       <c r="E40" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F40" s="79" t="s">
-        <v>334</v>
-      </c>
       <c r="G40" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -23465,19 +23691,19 @@
         <v>34</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J41" s="11"/>
     </row>
@@ -23489,19 +23715,19 @@
         <v>35</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="79" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J42" s="12"/>
     </row>
@@ -23513,60 +23739,60 @@
         <v>36</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="79" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="55"/>
-      <c r="C44" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93"/>
+      <c r="C44" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="94"/>
     </row>
     <row r="45" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="25"/>
       <c r="C45" s="56"/>
       <c r="D45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="H45" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="I45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="131.25" x14ac:dyDescent="0.2">
@@ -23577,19 +23803,19 @@
         <v>37</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J46" s="12"/>
     </row>
@@ -23601,60 +23827,60 @@
         <v>38</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F47" s="72" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="94" t="s">
-        <v>344</v>
-      </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82"/>
+      <c r="B48" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="96"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="25"/>
       <c r="C49" s="60"/>
       <c r="D49" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="H49" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="I49" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23665,19 +23891,19 @@
         <v>39</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J50" s="11"/>
     </row>
@@ -23689,19 +23915,19 @@
         <v>40</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J51" s="11"/>
     </row>
@@ -23713,19 +23939,19 @@
         <v>41</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J52" s="11"/>
     </row>
@@ -23737,19 +23963,19 @@
         <v>42</v>
       </c>
       <c r="E53" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>358</v>
-      </c>
       <c r="G53" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J53" s="11"/>
     </row>
@@ -23761,19 +23987,19 @@
         <v>43</v>
       </c>
       <c r="E54" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>360</v>
-      </c>
       <c r="G54" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J54" s="11"/>
     </row>
@@ -23785,19 +24011,19 @@
         <v>44</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J55" s="11"/>
     </row>
@@ -23809,19 +24035,19 @@
         <v>45</v>
       </c>
       <c r="E56" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>366</v>
-      </c>
       <c r="G56" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J56" s="11"/>
     </row>
@@ -31716,7 +31942,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J928"/>
+  <dimension ref="A1:J929"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31736,7 +31962,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -31749,70 +31975,70 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="A2" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="15"/>
       <c r="C3" s="23"/>
       <c r="D3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="23"/>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="15"/>
       <c r="C5" s="23"/>
@@ -31820,23 +32046,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="15"/>
       <c r="C6" s="23"/>
@@ -31844,19 +32070,19 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J6" s="11"/>
     </row>
@@ -31868,25 +32094,25 @@
         <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="15"/>
       <c r="C8" s="23"/>
@@ -31894,19 +32120,19 @@
         <v>5</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J8" s="11"/>
     </row>
@@ -31918,23 +32144,23 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="15"/>
       <c r="C10" s="23"/>
@@ -31942,22 +32168,22 @@
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
@@ -31968,113 +32194,115 @@
         <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="165" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="198" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="100"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="23"/>
       <c r="D12" s="11">
         <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>386</v>
+        <v>508</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>511</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>166</v>
+        <v>510</v>
       </c>
       <c r="I12" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="J13" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="94" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-    </row>
-    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="96"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="24"/>
       <c r="C15" s="61"/>
-      <c r="D15" s="29">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="J15" s="11"/>
+      <c r="D15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
@@ -32084,21 +32312,21 @@
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>318</v>
+        <v>86</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>390</v>
+        <v>87</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="J16" s="12"/>
+        <v>385</v>
+      </c>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
@@ -32108,23 +32336,23 @@
         <v>12</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="24"/>
       <c r="C18" s="61"/>
@@ -32132,23 +32360,23 @@
         <v>13</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="24"/>
       <c r="C19" s="61"/>
@@ -32156,23 +32384,23 @@
         <v>14</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="24"/>
       <c r="C20" s="61"/>
@@ -32180,23 +32408,23 @@
         <v>15</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="24"/>
       <c r="C21" s="61"/>
@@ -32204,25 +32432,23 @@
         <v>16</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="24"/>
       <c r="C22" s="61"/>
@@ -32230,25 +32456,25 @@
         <v>17</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>401</v>
+        <v>395</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J22" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="24"/>
       <c r="C23" s="61"/>
@@ -32256,23 +32482,25 @@
         <v>18</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>322</v>
+        <v>397</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>398</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
       <c r="C24" s="61"/>
@@ -32280,23 +32508,23 @@
         <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="24"/>
       <c r="C25" s="61"/>
@@ -32304,23 +32532,21 @@
         <v>20</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>95</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
@@ -32330,23 +32556,25 @@
         <v>21</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>100</v>
+        <v>405</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>413</v>
+        <v>67</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="24"/>
       <c r="C27" s="61"/>
@@ -32354,23 +32582,23 @@
         <v>22</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>330</v>
+        <v>99</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>64</v>
+        <v>410</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="24"/>
       <c r="C28" s="61"/>
@@ -32378,23 +32606,23 @@
         <v>23</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>312</v>
+        <v>63</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" ht="131.25" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="24"/>
       <c r="C29" s="61"/>
@@ -32402,23 +32630,23 @@
         <v>24</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>419</v>
+        <v>307</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="150" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="131.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="24"/>
       <c r="C30" s="61"/>
@@ -32426,23 +32654,23 @@
         <v>25</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>97</v>
+        <v>416</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="24"/>
       <c r="C31" s="61"/>
@@ -32450,185 +32678,185 @@
         <v>26</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="29">
         <v>27</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>327</v>
+        <v>419</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="29">
+        <v>28</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="87"/>
-    </row>
-    <row r="34" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="88"/>
+    </row>
+    <row r="35" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H35" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="I35" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="225" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="11">
-        <v>28</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="79" t="s">
-        <v>338</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="150" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="24"/>
       <c r="C36" s="61"/>
       <c r="D36" s="11">
         <v>29</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>429</v>
+      <c r="E36" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="79" t="s">
+        <v>335</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" ht="198" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="24"/>
       <c r="C37" s="61"/>
       <c r="D37" s="11">
         <v>30</v>
       </c>
-      <c r="E37" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="79" t="s">
-        <v>431</v>
+      <c r="E37" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="198" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="24"/>
       <c r="C38" s="61"/>
       <c r="D38" s="11">
         <v>31</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>337</v>
+      <c r="E38" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="79" t="s">
+        <v>428</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="330" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="24"/>
       <c r="C39" s="61"/>
@@ -32636,89 +32864,89 @@
         <v>32</v>
       </c>
       <c r="E39" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" ht="330" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="11">
+        <v>33</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="F39" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
-    </row>
-    <row r="41" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="7" t="s">
+      <c r="G40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="94"/>
+    </row>
+    <row r="42" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="I42" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I41" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="11">
-        <v>33</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="115.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="24"/>
       <c r="C43" s="57"/>
@@ -32726,89 +32954,87 @@
         <v>34</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="F43" s="72" t="s">
-        <v>436</v>
+        <v>108</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="G43" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="11">
+        <v>35</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="94" t="s">
+      <c r="F44" s="72" t="s">
+        <v>433</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
-    </row>
-    <row r="45" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="96"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="83"/>
+    </row>
+    <row r="46" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="H46" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="I46" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="11">
-        <v>35</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="24"/>
       <c r="C47" s="61"/>
@@ -32816,23 +33042,25 @@
         <v>36</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>438</v>
+        <v>279</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="24"/>
       <c r="C48" s="61"/>
@@ -32840,19 +33068,19 @@
         <v>37</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>355</v>
+        <v>92</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J48" s="11"/>
     </row>
@@ -32864,19 +33092,19 @@
         <v>38</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J49" s="11"/>
     </row>
@@ -32888,19 +33116,19 @@
         <v>39</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J50" s="11"/>
     </row>
@@ -32912,23 +33140,23 @@
         <v>40</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="24"/>
       <c r="C52" s="61"/>
@@ -32936,54 +33164,69 @@
         <v>41</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="62"/>
+    <row r="53" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="11">
         <v>42</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
+    <row r="54" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="11">
+        <v>43</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D55" s="30"/>
@@ -40851,13 +41094,22 @@
       <c r="I928" s="30"/>
       <c r="J928" s="30"/>
     </row>
+    <row r="929" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D929" s="30"/>
+      <c r="E929" s="30"/>
+      <c r="F929" s="31"/>
+      <c r="G929" s="32"/>
+      <c r="H929" s="30"/>
+      <c r="I929" s="30"/>
+      <c r="J929" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B45:J45"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40884,7 +41136,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -41023,10 +41275,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="56.25" x14ac:dyDescent="0.2">
@@ -41034,10 +41286,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>487</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18.75" x14ac:dyDescent="0.2">
@@ -41045,7 +41297,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>27</v>
@@ -41056,10 +41308,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="37.5" x14ac:dyDescent="0.2">
@@ -41067,10 +41319,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="37.5" x14ac:dyDescent="0.2">
@@ -41078,10 +41330,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41089,7 +41341,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>28</v>
@@ -41100,7 +41352,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>29</v>
@@ -41111,7 +41363,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>30</v>
@@ -41122,10 +41374,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41133,7 +41385,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>31</v>
@@ -41144,10 +41396,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41155,7 +41407,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>32</v>
@@ -41166,10 +41418,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41177,10 +41429,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
@@ -41188,10 +41440,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -41199,10 +41451,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41210,10 +41462,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
@@ -41221,10 +41473,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41232,7 +41484,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>33</v>
@@ -41243,7 +41495,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>34</v>
@@ -41254,7 +41506,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>35</v>
@@ -41265,10 +41517,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41276,10 +41528,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41287,10 +41539,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41298,10 +41550,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41309,10 +41561,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -41320,10 +41572,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
@@ -41427,62 +41679,62 @@
         <v>51</v>
       </c>
       <c r="C48" s="47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="80">
+        <v>5</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="80">
+        <v>6</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="80">
+        <v>7</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="101">
-        <v>5</v>
-      </c>
-      <c r="B49" s="66" t="s">
+    <row r="52" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="80">
+        <v>8</v>
+      </c>
+      <c r="B52" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="101">
-        <v>6</v>
-      </c>
-      <c r="B50" s="66" t="s">
+    <row r="53" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="80">
+        <v>9</v>
+      </c>
+      <c r="B53" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="101">
-        <v>7</v>
-      </c>
-      <c r="B51" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="101">
-        <v>8</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="101">
-        <v>9</v>
-      </c>
-      <c r="B53" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -41511,7 +41763,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>516</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -41525,10 +41777,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
@@ -41536,10 +41788,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="93.75" x14ac:dyDescent="0.2">
@@ -41547,10 +41799,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -41558,10 +41810,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -41569,10 +41821,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="198" x14ac:dyDescent="0.2">
@@ -41580,10 +41832,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="264" x14ac:dyDescent="0.2">
@@ -41591,10 +41843,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -41602,15 +41854,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+    </row>
+    <row r="11" spans="1:3" ht="131.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>9</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="30"/>
@@ -45588,182 +45847,182 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/FSLogixグループポリシー設定.xlsx
+++ b/FSLogixグループポリシー設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{ED725F2E-8C46-456E-9956-98B7D6256AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A45441B-91C7-4604-A343-D9466C261C6C}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{ED725F2E-8C46-456E-9956-98B7D6256AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB821A3-0D62-4A54-92D3-8477135D5F10}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15720" tabRatio="909" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="526">
   <si>
     <t>ポリシーツリー構成</t>
   </si>
@@ -5199,6 +5199,110 @@
     </rPh>
     <rPh sb="368" eb="369">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>CCD Max Cache Size in MBs</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>HKLM\SOFTWARE\FSLogix\Profiles\CcdMaxCacheSizeInMBs
+Type:  DWORD
+Values: Min (No Limit) = 0, Max = 1000000</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>数値入力
+（最小値0、最大値1000000）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Cloud Chcheで動作している際の端末ローカル側に持たせるユーザープロファイルのキャッシュサイズをMB単位で指定します。キャッシュとなる場所のストレージI/Oパフォーマンスが十分である事が求められます。
+警告：この設定はFSLogix及び使用する各ストレージのパフォーマンス及び技術に対する十分な理解が必要となります。理解が不足している場合は設定しないでください。パフォーマンス低下の原因となる場合があります。</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -5865,6 +5969,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5906,18 +6022,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6146,7 +6250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6170,45 +6274,45 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
       <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="83" t="s">
         <v>437</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="F5" s="35" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="85" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="82"/>
       <c r="F6" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="85" t="s">
         <v>439</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="82"/>
       <c r="F7" s="35" t="s">
         <v>479</v>
       </c>
@@ -6237,11 +6341,11 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
       <c r="F10" s="35" t="s">
         <v>7</v>
       </c>
@@ -6328,16 +6432,16 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -14347,16 +14451,16 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -22368,16 +22472,16 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -30779,18 +30883,18 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="89" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
@@ -31622,17 +31726,17 @@
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="93"/>
     </row>
     <row r="38" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
@@ -31832,17 +31936,17 @@
     </row>
     <row r="46" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="78"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="82"/>
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
@@ -39927,7 +40031,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J926"/>
+  <dimension ref="A1:J927"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39960,18 +40064,18 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
@@ -40101,7 +40205,7 @@
       <c r="A8" s="22"/>
       <c r="B8" s="15"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="93">
+      <c r="D8" s="79">
         <v>5</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -40717,7 +40821,7 @@
       <c r="A33" s="22"/>
       <c r="B33" s="15"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="90">
+      <c r="D33" s="76">
         <v>30</v>
       </c>
       <c r="E33" s="61" t="s">
@@ -40726,30 +40830,30 @@
       <c r="F33" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="G33" s="91" t="s">
+      <c r="G33" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="H33" s="91" t="s">
+      <c r="H33" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="J33" s="92"/>
+      <c r="J33" s="78"/>
     </row>
     <row r="34" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="78"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="82"/>
     </row>
     <row r="35" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
@@ -40825,66 +40929,66 @@
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="198" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="24"/>
       <c r="C38" s="54"/>
       <c r="D38" s="11">
         <v>33</v>
       </c>
-      <c r="E38" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="72" t="s">
-        <v>352</v>
+      <c r="E38" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>525</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>88</v>
+        <v>524</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>140</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="198" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="24"/>
       <c r="C39" s="54"/>
       <c r="D39" s="11">
         <v>34</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>259</v>
+      <c r="E39" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>352</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>140</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+        <v>351</v>
+      </c>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
       <c r="B40" s="24"/>
       <c r="C40" s="54"/>
       <c r="D40" s="11">
         <v>35</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>92</v>
+        <v>257</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>56</v>
@@ -40893,103 +40997,101 @@
         <v>140</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="330" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+        <v>353</v>
+      </c>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
       <c r="B41" s="24"/>
       <c r="C41" s="54"/>
       <c r="D41" s="11">
         <v>36</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F41" s="72" t="s">
-        <v>256</v>
+        <v>87</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>140</v>
       </c>
       <c r="I41" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" ht="330" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="11">
+        <v>37</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="87" t="s">
+    <row r="43" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="78"/>
-    </row>
-    <row r="43" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="92"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="82"/>
+    </row>
+    <row r="44" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I44" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="11">
-        <v>37</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="24"/>
       <c r="C45" s="54"/>
@@ -40997,23 +41099,25 @@
         <v>38</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>359</v>
+        <v>209</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>140</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="24"/>
       <c r="C46" s="54"/>
@@ -41021,10 +41125,10 @@
         <v>39</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>60</v>
@@ -41033,7 +41137,7 @@
         <v>140</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J46" s="11"/>
     </row>
@@ -41045,10 +41149,10 @@
         <v>40</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>60</v>
@@ -41057,7 +41161,7 @@
         <v>140</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J47" s="11"/>
     </row>
@@ -41069,10 +41173,10 @@
         <v>41</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>60</v>
@@ -41081,7 +41185,7 @@
         <v>140</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J48" s="11"/>
     </row>
@@ -41093,10 +41197,10 @@
         <v>42</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>60</v>
@@ -41105,11 +41209,11 @@
         <v>140</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="24"/>
       <c r="C50" s="54"/>
@@ -41117,34 +41221,34 @@
         <v>43</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>140</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="55"/>
+    <row r="51" spans="1:10" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="11">
         <v>44</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>56</v>
@@ -41153,18 +41257,33 @@
         <v>140</v>
       </c>
       <c r="I51" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="11">
+        <v>45</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="30"/>
@@ -49032,10 +49151,19 @@
       <c r="I926" s="30"/>
       <c r="J926" s="30"/>
     </row>
+    <row r="927" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D927" s="30"/>
+      <c r="E927" s="30"/>
+      <c r="F927" s="31"/>
+      <c r="G927" s="32"/>
+      <c r="H927" s="30"/>
+      <c r="I927" s="30"/>
+      <c r="J927" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
@@ -49678,7 +49806,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
